--- a/data/trans_dic/P2A_ner_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1170098834400261</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08332330947630646</v>
+        <v>0.08332330947630648</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03599933462788633</v>
+        <v>0.0370190901440036</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02628030259319287</v>
+        <v>0.02563573916635842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.051069871492778</v>
+        <v>0.05101471431015253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0657677985109593</v>
+        <v>0.06627603897829597</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06459402223228899</v>
+        <v>0.06325707198926515</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06329784872216825</v>
+        <v>0.06324060063714682</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1442250191406876</v>
+        <v>0.1418687026597836</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06392971840724655</v>
+        <v>0.06126385889681995</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05449352805862001</v>
+        <v>0.05549250475551822</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04732720797375985</v>
+        <v>0.0476717236536127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1043995695087407</v>
+        <v>0.1042349575435266</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06958966911521129</v>
+        <v>0.06765333065632012</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07565721752026836</v>
+        <v>0.07390718359196867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04879595364829326</v>
+        <v>0.04980087242181695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07991939787280056</v>
+        <v>0.08280282824117266</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.126251861512273</v>
+        <v>0.1242683402791713</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09988306358189088</v>
+        <v>0.09750824688823172</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09637990261283888</v>
+        <v>0.0973776314834922</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1879426140629969</v>
+        <v>0.1879153492030624</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09769941541131699</v>
+        <v>0.09653966102944074</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08186547257885107</v>
+        <v>0.08174645091362542</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06837550713878829</v>
+        <v>0.07005986924566487</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1310082970256363</v>
+        <v>0.1309633735998819</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1029554541713515</v>
+        <v>0.1025237945323133</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.06481748336461605</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03750092774650656</v>
+        <v>0.03750092774650655</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02267489361403498</v>
+        <v>0.02238389457491496</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02595141739665719</v>
+        <v>0.0259513956804747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03296044537895774</v>
+        <v>0.03263031530753591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01811567547435139</v>
+        <v>0.01671952630819273</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02998918900820055</v>
+        <v>0.03017673835641965</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03496981361070881</v>
+        <v>0.03447607723847592</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06694763575357554</v>
+        <v>0.06695831688276609</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03758523297393988</v>
+        <v>0.03762218951482423</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02933289376007218</v>
+        <v>0.02833375618297723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03300165254063015</v>
+        <v>0.03310562443559941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0550812761068657</v>
+        <v>0.05433030547283776</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03051841630677271</v>
+        <v>0.0304669628040624</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04480677296883054</v>
+        <v>0.04562218980475508</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0518654831448955</v>
+        <v>0.0519233399149979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06041303564409839</v>
+        <v>0.05920850178090664</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03888588173081518</v>
+        <v>0.03773657540977521</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05656296706828046</v>
+        <v>0.05509637260320901</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06032444754471781</v>
+        <v>0.06041911238380615</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1004480175800628</v>
+        <v>0.1008438291746959</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05959538651800437</v>
+        <v>0.0586331853460533</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04591493519219707</v>
+        <v>0.04464428537956795</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05168378505550186</v>
+        <v>0.05049557901066692</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07797441242795518</v>
+        <v>0.07651189834495362</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04552353529497614</v>
+        <v>0.04579808756233334</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01152606598807066</v>
+        <v>0.01148872464939827</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01581312294660444</v>
+        <v>0.01482363215373873</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02096250386725021</v>
+        <v>0.02026903450441331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01578343093987059</v>
+        <v>0.01626639175807258</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01938387129330956</v>
+        <v>0.01886848743413164</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01845717374140009</v>
+        <v>0.01917731496406945</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06283928470142212</v>
+        <v>0.06004979076996932</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02590716586590981</v>
+        <v>0.02568897479730535</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01738780102919538</v>
+        <v>0.01661503476663977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01963774639335687</v>
+        <v>0.01967674097955024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04433668331617808</v>
+        <v>0.04509147106987671</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02369845475958093</v>
+        <v>0.02311453508974069</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02766835712365697</v>
+        <v>0.02799411309920079</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03968662642979971</v>
+        <v>0.03857511062976569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04368927306245308</v>
+        <v>0.04438194383053756</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03528147426475717</v>
+        <v>0.03494523449282691</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04147341898946566</v>
+        <v>0.04033389741679454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04115618457738817</v>
+        <v>0.04083514352826898</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1052912453276692</v>
+        <v>0.1028665797844415</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04764518302079367</v>
+        <v>0.047733950278398</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03006466381082721</v>
+        <v>0.03058064686574332</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03651935130573242</v>
+        <v>0.03521551268723856</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06928623118482295</v>
+        <v>0.06912939927643919</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.038531632940326</v>
+        <v>0.03804056479113265</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.06977285471817513</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0421637594378529</v>
+        <v>0.04216375943785289</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01813086742897175</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003724732316024309</v>
+        <v>0.003769774302680913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009407197320528738</v>
+        <v>0.007947950393288546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01136374848199001</v>
+        <v>0.01097303389248772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01584396138348566</v>
+        <v>0.01647201544575953</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01197924482379315</v>
+        <v>0.01395807449676655</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01313962737856529</v>
+        <v>0.01341868901002587</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04842317739531205</v>
+        <v>0.04756294314761089</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03355965334697541</v>
+        <v>0.03141551273356917</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01028329439705471</v>
+        <v>0.01039608483798245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01293906130277702</v>
+        <v>0.01305709543705011</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03355396552794774</v>
+        <v>0.03368337102554864</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02647083880955786</v>
+        <v>0.02709668650586989</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02231388487458245</v>
+        <v>0.02266094977302745</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03328373722270755</v>
+        <v>0.03258444140120911</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03970250553473964</v>
+        <v>0.04025688446848732</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03882683053524566</v>
+        <v>0.03976957561135628</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05043053725497892</v>
+        <v>0.05334053369925314</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04448810911507115</v>
+        <v>0.04597006146024163</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09671951318936806</v>
+        <v>0.09743928555203288</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05573690682108324</v>
+        <v>0.05460681250317063</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02957875076629661</v>
+        <v>0.03050054394287174</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03335493204196871</v>
+        <v>0.03203498976036262</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06107054841677127</v>
+        <v>0.06162817176067863</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04264473261596663</v>
+        <v>0.04310001993059025</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02259340898286951</v>
+        <v>0.02211004369947931</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0249365270479518</v>
+        <v>0.02504243182024626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03780912113332937</v>
+        <v>0.03751988262131111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02885809895311037</v>
+        <v>0.02876904885677355</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03912467912867364</v>
+        <v>0.03989443307821185</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04216645324296175</v>
+        <v>0.04226454474316326</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09924030498536972</v>
+        <v>0.09896605252569537</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04223620238221722</v>
+        <v>0.04207995152600129</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03276460143627032</v>
+        <v>0.03273819759162729</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03545558025402021</v>
+        <v>0.03561312386056954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07206952441294795</v>
+        <v>0.07131005329364264</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.037314668697829</v>
+        <v>0.03714567009918785</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03352744160682427</v>
+        <v>0.03381904917467411</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03761038829412785</v>
+        <v>0.03736004401856545</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0515426977624101</v>
+        <v>0.05249656263832984</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0414343564788097</v>
+        <v>0.04179061443114865</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05396698500394036</v>
+        <v>0.05397768274934824</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05665608650601632</v>
+        <v>0.05734057362329696</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1209020359791627</v>
+        <v>0.1208366611966659</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05413074322731904</v>
+        <v>0.05446839661726076</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04237168166127955</v>
+        <v>0.04221660251395604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04515346988371406</v>
+        <v>0.04579634907326396</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0851345040219126</v>
+        <v>0.0843904574392115</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04627924912385636</v>
+        <v>0.04605932225113903</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21029</v>
+        <v>21624</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27435</v>
+        <v>26762</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>57607</v>
+        <v>57544</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32801</v>
+        <v>33054</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>59577</v>
+        <v>58344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>70889</v>
+        <v>70825</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>181660</v>
+        <v>178692</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39865</v>
+        <v>38203</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>82093</v>
+        <v>83598</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>102410</v>
+        <v>103155</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>249260</v>
+        <v>248867</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>78102</v>
+        <v>75929</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44194</v>
+        <v>43172</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50940</v>
+        <v>51989</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>90149</v>
+        <v>93401</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62967</v>
+        <v>61977</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>92125</v>
+        <v>89935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>107939</v>
+        <v>109056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>236725</v>
+        <v>236691</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>60923</v>
+        <v>60200</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>123328</v>
+        <v>123149</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>147955</v>
+        <v>151600</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>312790</v>
+        <v>312683</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>115549</v>
+        <v>115065</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24441</v>
+        <v>24127</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>25356</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29955</v>
+        <v>29655</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17394</v>
+        <v>16053</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31715</v>
+        <v>31913</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>38266</v>
+        <v>37726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>67381</v>
+        <v>67392</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41939</v>
+        <v>41981</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>62638</v>
+        <v>60505</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>68357</v>
+        <v>68573</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>105497</v>
+        <v>104059</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>63356</v>
+        <v>63249</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48297</v>
+        <v>49176</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50676</v>
+        <v>50733</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54905</v>
+        <v>53810</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>37336</v>
+        <v>36232</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>59817</v>
+        <v>58267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>66011</v>
+        <v>66114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>101098</v>
+        <v>101497</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66499</v>
+        <v>65426</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>98048</v>
+        <v>95335</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>107054</v>
+        <v>104593</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>149344</v>
+        <v>146543</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>94506</v>
+        <v>95076</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12928</v>
+        <v>12886</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13996</v>
+        <v>13121</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17268</v>
+        <v>16697</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16517</v>
+        <v>17022</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19266</v>
+        <v>18754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16165</v>
+        <v>16795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>48453</v>
+        <v>46302</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27141</v>
+        <v>26913</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>36784</v>
+        <v>35150</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>34580</v>
+        <v>34649</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>70709</v>
+        <v>71913</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>49627</v>
+        <v>48405</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31033</v>
+        <v>31398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35127</v>
+        <v>34143</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35989</v>
+        <v>36560</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36921</v>
+        <v>36569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>41222</v>
+        <v>40089</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36044</v>
+        <v>35763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>81186</v>
+        <v>79316</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49915</v>
+        <v>50008</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63603</v>
+        <v>64694</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>64307</v>
+        <v>62011</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>110499</v>
+        <v>110249</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>80690</v>
+        <v>79662</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4732</v>
+        <v>3998</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5758</v>
+        <v>5560</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15463</v>
+        <v>16076</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4087</v>
+        <v>4762</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5949</v>
+        <v>6075</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23713</v>
+        <v>23291</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30551</v>
+        <v>28599</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8107</v>
+        <v>8196</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>12367</v>
+        <v>12479</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33433</v>
+        <v>33562</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>49931</v>
+        <v>51112</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9979</v>
+        <v>10134</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16742</v>
+        <v>16391</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20117</v>
+        <v>20398</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37892</v>
+        <v>38812</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17205</v>
+        <v>18198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20141</v>
+        <v>20812</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47363</v>
+        <v>47716</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>50740</v>
+        <v>49711</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23319</v>
+        <v>24045</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>31879</v>
+        <v>30618</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60851</v>
+        <v>61406</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>80440</v>
+        <v>81298</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72995</v>
+        <v>71434</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>85012</v>
+        <v>85373</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>127314</v>
+        <v>126340</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>100463</v>
+        <v>100153</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>129697</v>
+        <v>132249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>149384</v>
+        <v>149732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>350000</v>
+        <v>349033</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>156165</v>
+        <v>155587</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>214470</v>
+        <v>214298</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>246482</v>
+        <v>247578</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>496853</v>
+        <v>491617</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>267871</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>108321</v>
+        <v>109264</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128219</v>
+        <v>127366</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>173559</v>
+        <v>176771</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>144245</v>
+        <v>145485</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>178899</v>
+        <v>178934</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>200717</v>
+        <v>203142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>426396</v>
+        <v>426166</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>200144</v>
+        <v>201392</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>277356</v>
+        <v>276341</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>313901</v>
+        <v>318370</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>586924</v>
+        <v>581794</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>332225</v>
+        <v>330646</v>
       </c>
     </row>
     <row r="24">
